--- a/HSU_StudentAnswer_20_students.xlsx
+++ b/HSU_StudentAnswer_20_students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17ebd2f24c1fc596/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{C728FB00-C98C-4362-B0C2-762D48BA4A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36FD459C-D7E4-4212-BA42-5D828AB9B625}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{C728FB00-C98C-4362-B0C2-762D48BA4A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DE9765F-D714-4F88-8307-78473C86C317}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8292167C-6F07-491A-A285-287302ED28F4}"/>
   </bookViews>
@@ -158,10 +158,10 @@
     <t>Neither agree nor disagree</t>
   </si>
   <si>
-    <t>Agreee</t>
-  </si>
-  <si>
-    <t>Strongly agreee</t>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>Agree</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:R1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="154.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,28 +590,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>38</v>
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -637,31 +637,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2">
         <v>4</v>
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -684,31 +684,31 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2">
         <v>2</v>
@@ -734,28 +734,28 @@
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2">
         <v>2</v>
@@ -778,31 +778,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -825,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -837,19 +837,19 @@
         <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7" s="2">
         <v>5</v>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -872,13 +872,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
@@ -887,16 +887,16 @@
         <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="2">
         <v>4</v>
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -919,28 +919,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>39</v>
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -966,28 +966,28 @@
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>39</v>
@@ -1013,31 +1013,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11" s="2">
         <v>4</v>
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1060,28 +1060,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>39</v>
@@ -1099,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1107,31 +1107,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="2">
         <v>3</v>
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1154,31 +1154,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="2">
         <v>3</v>
@@ -1193,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1201,31 +1201,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K15" s="2">
         <v>3</v>
@@ -1248,31 +1248,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16" s="2">
         <v>3</v>
@@ -1287,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1295,28 +1295,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>39</v>
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1342,25 +1342,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>39</v>
@@ -1381,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1389,31 +1389,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19" s="2">
         <v>3</v>
@@ -1428,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1439,25 +1439,25 @@
         <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>39</v>
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1483,31 +1483,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21" s="2">
         <v>5</v>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/HSU_StudentAnswer_20_students.xlsx
+++ b/HSU_StudentAnswer_20_students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17ebd2f24c1fc596/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="8_{C728FB00-C98C-4362-B0C2-762D48BA4A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DE9765F-D714-4F88-8307-78473C86C317}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="8_{C728FB00-C98C-4362-B0C2-762D48BA4A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D92DA1-2D31-40EA-AD63-A73E2220C405}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8292167C-6F07-491A-A285-287302ED28F4}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>s2.13</t>
   </si>
   <si>
-    <t>s2.17</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Agree</t>
+  </si>
+  <si>
+    <t>OS1</t>
   </si>
 </sst>
 </file>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D49A98-7125-45AE-B013-386597EB28DB}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="154.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,31 +543,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -576,13 +576,13 @@
         <v>21</v>
       </c>
       <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -590,31 +590,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -637,31 +637,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2">
         <v>4</v>
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -684,31 +684,31 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2">
         <v>2</v>
@@ -723,39 +723,39 @@
         <v>2</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" s="2">
         <v>2</v>
@@ -767,10 +767,10 @@
         <v>2</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -778,31 +778,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -825,31 +825,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="2">
         <v>5</v>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -872,31 +872,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="2">
         <v>4</v>
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -919,31 +919,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="2">
         <v>3</v>
@@ -958,39 +958,39 @@
         <v>2</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2">
         <v>4</v>
@@ -1005,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1013,31 +1013,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="2">
         <v>4</v>
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1060,31 +1060,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1107,31 +1107,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="2">
         <v>3</v>
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1154,31 +1154,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14" s="2">
         <v>3</v>
@@ -1193,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1201,31 +1201,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" s="2">
         <v>3</v>
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1248,31 +1248,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" s="2">
         <v>3</v>
@@ -1287,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1295,31 +1295,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17" s="2">
         <v>2</v>
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1342,31 +1342,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" s="2">
         <v>4</v>
@@ -1381,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1389,31 +1389,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" s="2">
         <v>3</v>
@@ -1428,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1436,31 +1436,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20" s="2">
         <v>3</v>
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1483,31 +1483,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21" s="2">
         <v>5</v>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/HSU_StudentAnswer_20_students.xlsx
+++ b/HSU_StudentAnswer_20_students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17ebd2f24c1fc596/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{C728FB00-C98C-4362-B0C2-762D48BA4A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D92DA1-2D31-40EA-AD63-A73E2220C405}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="8_{C728FB00-C98C-4362-B0C2-762D48BA4A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE9A291C-4EC1-49A0-A08F-B1E60E1D8AF5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8292167C-6F07-491A-A285-287302ED28F4}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D49A98-7125-45AE-B013-386597EB28DB}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:BV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="154.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
